--- a/xgb_final_features.xlsx
+++ b/xgb_final_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>original_cname</t>
   </si>
@@ -22,9 +22,6 @@
     <t>mapped_cname</t>
   </si>
   <si>
-    <t>AMS3159</t>
-  </si>
-  <si>
     <t>AMS3208</t>
   </si>
   <si>
@@ -52,7 +49,7 @@
     <t>AMS3833</t>
   </si>
   <si>
-    <t>AMS3835</t>
+    <t>AMS3841</t>
   </si>
   <si>
     <t>AMS3843</t>
@@ -79,9 +76,6 @@
     <t>AMS3900</t>
   </si>
   <si>
-    <t>T Bal Open Trades w/Update w/in 3 M</t>
-  </si>
-  <si>
     <t>T High Credit Open Rev Trades w/Update w/in 3 M</t>
   </si>
   <si>
@@ -109,7 +103,7 @@
     <t>% Open Bkcrd Trades to Bkcrd Trades</t>
   </si>
   <si>
-    <t>% Open Inst Trades to Inst Trades</t>
+    <t>% Open Retail Trades to Open Trades</t>
   </si>
   <si>
     <t>% Trades Opened w/in 6 M to Trades</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -590,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -598,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -606,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -614,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -622,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -630,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -638,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,15 +640,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
